--- a/Code/Results/Cases/Case_3_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007518016554604</v>
+        <v>1.031673357105697</v>
       </c>
       <c r="D2">
-        <v>1.023804389522298</v>
+        <v>1.036299454614937</v>
       </c>
       <c r="E2">
-        <v>1.021283685307411</v>
+        <v>1.041561461487249</v>
       </c>
       <c r="F2">
-        <v>1.028525410439016</v>
+        <v>1.053401397699271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045113496039199</v>
+        <v>1.037183268039884</v>
       </c>
       <c r="J2">
-        <v>1.029476166892914</v>
+        <v>1.036807787208039</v>
       </c>
       <c r="K2">
-        <v>1.034941760996515</v>
+        <v>1.039093592904857</v>
       </c>
       <c r="L2">
-        <v>1.032454258870543</v>
+        <v>1.044340627457229</v>
       </c>
       <c r="M2">
-        <v>1.03960114594736</v>
+        <v>1.056147467704779</v>
       </c>
       <c r="N2">
-        <v>1.013713522590904</v>
+        <v>1.016257579537647</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011151790755372</v>
+        <v>1.032448907208464</v>
       </c>
       <c r="D3">
-        <v>1.026418991659962</v>
+        <v>1.036879201612525</v>
       </c>
       <c r="E3">
-        <v>1.024420833358277</v>
+        <v>1.04228647119365</v>
       </c>
       <c r="F3">
-        <v>1.032316445568163</v>
+        <v>1.054289464434955</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046083095626833</v>
+        <v>1.037348341686292</v>
       </c>
       <c r="J3">
-        <v>1.031342995305355</v>
+        <v>1.037226196426974</v>
       </c>
       <c r="K3">
-        <v>1.036724637589569</v>
+        <v>1.039483522881351</v>
       </c>
       <c r="L3">
-        <v>1.034750496617723</v>
+        <v>1.04487651486592</v>
       </c>
       <c r="M3">
-        <v>1.042551877322554</v>
+        <v>1.056848379585562</v>
       </c>
       <c r="N3">
-        <v>1.014340157457685</v>
+        <v>1.016397247667257</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013462029776321</v>
+        <v>1.032951423219397</v>
       </c>
       <c r="D4">
-        <v>1.02808395317755</v>
+        <v>1.037254877379135</v>
       </c>
       <c r="E4">
-        <v>1.026420840475137</v>
+        <v>1.042756638167133</v>
       </c>
       <c r="F4">
-        <v>1.03473307769626</v>
+        <v>1.054865440474069</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046691738129956</v>
+        <v>1.037454323471892</v>
       </c>
       <c r="J4">
-        <v>1.032527533559493</v>
+        <v>1.037496932851472</v>
       </c>
       <c r="K4">
-        <v>1.037854845226952</v>
+        <v>1.039735672757486</v>
       </c>
       <c r="L4">
-        <v>1.036210513226861</v>
+        <v>1.04522363525291</v>
       </c>
       <c r="M4">
-        <v>1.044429626430728</v>
+        <v>1.057302614283762</v>
       </c>
       <c r="N4">
-        <v>1.014737676838956</v>
+        <v>1.016487592473831</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014423708291365</v>
+        <v>1.033162842675664</v>
       </c>
       <c r="D5">
-        <v>1.028777628921329</v>
+        <v>1.037412939052577</v>
       </c>
       <c r="E5">
-        <v>1.027254676401898</v>
+        <v>1.042954542719373</v>
       </c>
       <c r="F5">
-        <v>1.035740570105419</v>
+        <v>1.055107898905812</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046943197055896</v>
+        <v>1.037498678312138</v>
       </c>
       <c r="J5">
-        <v>1.033020036019175</v>
+        <v>1.037610748603765</v>
       </c>
       <c r="K5">
-        <v>1.038324495823739</v>
+        <v>1.039841636735397</v>
       </c>
       <c r="L5">
-        <v>1.03681828206512</v>
+        <v>1.045369650622085</v>
       </c>
       <c r="M5">
-        <v>1.045211676262865</v>
+        <v>1.057493739813561</v>
       </c>
       <c r="N5">
-        <v>1.014902931824415</v>
+        <v>1.016525565827425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014584626581065</v>
+        <v>1.033198350362783</v>
       </c>
       <c r="D6">
-        <v>1.028893736655853</v>
+        <v>1.037439485730284</v>
       </c>
       <c r="E6">
-        <v>1.02739427824745</v>
+        <v>1.042987786154138</v>
       </c>
       <c r="F6">
-        <v>1.035909243795062</v>
+        <v>1.055148627336456</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046985161382626</v>
+        <v>1.037506113941029</v>
       </c>
       <c r="J6">
-        <v>1.033102411847698</v>
+        <v>1.037629858624078</v>
       </c>
       <c r="K6">
-        <v>1.03840303379903</v>
+        <v>1.039859426179746</v>
       </c>
       <c r="L6">
-        <v>1.036919980383692</v>
+        <v>1.045394172241549</v>
       </c>
       <c r="M6">
-        <v>1.045342560257684</v>
+        <v>1.057525840269709</v>
       </c>
       <c r="N6">
-        <v>1.014930570865091</v>
+        <v>1.016531941261182</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013474916913506</v>
+        <v>1.032954247583355</v>
       </c>
       <c r="D7">
-        <v>1.028093246555764</v>
+        <v>1.037256988907989</v>
       </c>
       <c r="E7">
-        <v>1.02643200934706</v>
+        <v>1.04275928161189</v>
       </c>
       <c r="F7">
-        <v>1.0347465727626</v>
+        <v>1.054868678968188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04669511538402</v>
+        <v>1.037454916929845</v>
       </c>
       <c r="J7">
-        <v>1.032534135754272</v>
+        <v>1.03749845367197</v>
       </c>
       <c r="K7">
-        <v>1.037861142130326</v>
+        <v>1.039737088811497</v>
       </c>
       <c r="L7">
-        <v>1.036218657724941</v>
+        <v>1.045225585981569</v>
       </c>
       <c r="M7">
-        <v>1.044440104859244</v>
+        <v>1.057305167465338</v>
       </c>
       <c r="N7">
-        <v>1.01473989224609</v>
+        <v>1.0164880999061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008754742430022</v>
+        <v>1.031935315317292</v>
       </c>
       <c r="D8">
-        <v>1.024693664417021</v>
+        <v>1.036495269754603</v>
       </c>
       <c r="E8">
-        <v>1.022350220792096</v>
+        <v>1.041806265975334</v>
       </c>
       <c r="F8">
-        <v>1.029814309201199</v>
+        <v>1.053701245819862</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045445106029612</v>
+        <v>1.037239227254863</v>
       </c>
       <c r="J8">
-        <v>1.030112000737741</v>
+        <v>1.036949190269691</v>
       </c>
       <c r="K8">
-        <v>1.035549218895848</v>
+        <v>1.039225404091185</v>
       </c>
       <c r="L8">
-        <v>1.033235721126374</v>
+        <v>1.044521656544314</v>
       </c>
       <c r="M8">
-        <v>1.04060502085615</v>
+        <v>1.056384198579679</v>
       </c>
       <c r="N8">
-        <v>1.013926970022244</v>
+        <v>1.01630478692887</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00010946515771</v>
+        <v>1.030145140840554</v>
       </c>
       <c r="D9">
-        <v>1.018490113222407</v>
+        <v>1.035157246633561</v>
       </c>
       <c r="E9">
-        <v>1.014918935432508</v>
+        <v>1.040134960933275</v>
       </c>
       <c r="F9">
-        <v>1.020831927705349</v>
+        <v>1.051654415480588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043095263403846</v>
+        <v>1.036852816069308</v>
       </c>
       <c r="J9">
-        <v>1.025658358520103</v>
+        <v>1.035981357099771</v>
       </c>
       <c r="K9">
-        <v>1.031290158792366</v>
+        <v>1.038322576034159</v>
       </c>
       <c r="L9">
-        <v>1.027774513297408</v>
+        <v>1.043284108676229</v>
       </c>
       <c r="M9">
-        <v>1.033595826997248</v>
+        <v>1.054766758169876</v>
       </c>
       <c r="N9">
-        <v>1.012431579065824</v>
+        <v>1.015981558311606</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9941061127225687</v>
+        <v>1.02895537447267</v>
       </c>
       <c r="D10">
-        <v>1.01420044802742</v>
+        <v>1.034268182088157</v>
       </c>
       <c r="E10">
-        <v>1.009790595461327</v>
+        <v>1.039026273612824</v>
       </c>
       <c r="F10">
-        <v>1.014630165046545</v>
+        <v>1.050296936394121</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041424555232101</v>
+        <v>1.036590991587837</v>
       </c>
       <c r="J10">
-        <v>1.022555541031639</v>
+        <v>1.035336238174656</v>
       </c>
       <c r="K10">
-        <v>1.028317956659912</v>
+        <v>1.037719979676497</v>
       </c>
       <c r="L10">
-        <v>1.02398529945911</v>
+        <v>1.042461094399615</v>
       </c>
       <c r="M10">
-        <v>1.028740197840508</v>
+        <v>1.053692219525757</v>
       </c>
       <c r="N10">
-        <v>1.011389429023017</v>
+        <v>1.015765960743085</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9914450844495357</v>
+        <v>1.028441089431579</v>
       </c>
       <c r="D11">
-        <v>1.012303924581993</v>
+        <v>1.033883930844346</v>
       </c>
       <c r="E11">
-        <v>1.007525426841299</v>
+        <v>1.038547532890268</v>
       </c>
       <c r="F11">
-        <v>1.011889886345729</v>
+        <v>1.049710837439343</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040675182061514</v>
+        <v>1.03647662790605</v>
       </c>
       <c r="J11">
-        <v>1.021178140034547</v>
+        <v>1.035056935310695</v>
       </c>
       <c r="K11">
-        <v>1.026997478163701</v>
+        <v>1.037458896787798</v>
       </c>
       <c r="L11">
-        <v>1.022306806490749</v>
+        <v>1.042105217938621</v>
       </c>
       <c r="M11">
-        <v>1.02659100698102</v>
+        <v>1.053227845907692</v>
       </c>
       <c r="N11">
-        <v>1.010926747338462</v>
+        <v>1.015672583987217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9904469962559332</v>
+        <v>1.028250196915012</v>
       </c>
       <c r="D12">
-        <v>1.0115933730465</v>
+        <v>1.033741312854924</v>
       </c>
       <c r="E12">
-        <v>1.006677055483682</v>
+        <v>1.038369908839657</v>
       </c>
       <c r="F12">
-        <v>1.01086340102525</v>
+        <v>1.049493391522262</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040392821445806</v>
+        <v>1.036433999864268</v>
       </c>
       <c r="J12">
-        <v>1.020661232211609</v>
+        <v>1.034953196799804</v>
       </c>
       <c r="K12">
-        <v>1.026501782575715</v>
+        <v>1.037361897081946</v>
       </c>
       <c r="L12">
-        <v>1.021677442000146</v>
+        <v>1.041973105378518</v>
       </c>
       <c r="M12">
-        <v>1.025785393454631</v>
+        <v>1.053055495248033</v>
       </c>
       <c r="N12">
-        <v>1.010753107734646</v>
+        <v>1.01563789693627</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9906615338477015</v>
+        <v>1.028291137830181</v>
       </c>
       <c r="D13">
-        <v>1.011746068523094</v>
+        <v>1.033771899887782</v>
       </c>
       <c r="E13">
-        <v>1.006859355043883</v>
+        <v>1.038408000647571</v>
       </c>
       <c r="F13">
-        <v>1.011083982173895</v>
+        <v>1.049540022730192</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040453572086784</v>
+        <v>1.036443150421759</v>
       </c>
       <c r="J13">
-        <v>1.020772352823044</v>
+        <v>1.034975448724244</v>
       </c>
       <c r="K13">
-        <v>1.026608349751764</v>
+        <v>1.037382704817405</v>
       </c>
       <c r="L13">
-        <v>1.021812713483638</v>
+        <v>1.042001440515808</v>
       </c>
       <c r="M13">
-        <v>1.025958535944819</v>
+        <v>1.053092458757878</v>
       </c>
       <c r="N13">
-        <v>1.01079043556884</v>
+        <v>1.015645337543972</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9913627818090045</v>
+        <v>1.028425307414472</v>
       </c>
       <c r="D14">
-        <v>1.012245315936223</v>
+        <v>1.033872139741133</v>
       </c>
       <c r="E14">
-        <v>1.007455444470745</v>
+        <v>1.038532846307186</v>
       </c>
       <c r="F14">
-        <v>1.011805214937314</v>
+        <v>1.04969285803005</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040651924518221</v>
+        <v>1.036473107279299</v>
       </c>
       <c r="J14">
-        <v>1.021135521128605</v>
+        <v>1.035048360102434</v>
       </c>
       <c r="K14">
-        <v>1.026956611183805</v>
+        <v>1.03745087920076</v>
       </c>
       <c r="L14">
-        <v>1.02225490469154</v>
+        <v>1.042094295917801</v>
       </c>
       <c r="M14">
-        <v>1.026524565573638</v>
+        <v>1.05321359651479</v>
       </c>
       <c r="N14">
-        <v>1.010912430900943</v>
+        <v>1.015669716798439</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9917935503623054</v>
+        <v>1.028507991780913</v>
       </c>
       <c r="D15">
-        <v>1.01255210363009</v>
+        <v>1.033933915460816</v>
       </c>
       <c r="E15">
-        <v>1.007821780029351</v>
+        <v>1.038609794608896</v>
       </c>
       <c r="F15">
-        <v>1.01224843581793</v>
+        <v>1.049787059065892</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040773601172245</v>
+        <v>1.036491545062121</v>
       </c>
       <c r="J15">
-        <v>1.021358575551324</v>
+        <v>1.035093284177019</v>
       </c>
       <c r="K15">
-        <v>1.027170490518108</v>
+        <v>1.037492880827107</v>
       </c>
       <c r="L15">
-        <v>1.022526564801975</v>
+        <v>1.042151517286926</v>
       </c>
       <c r="M15">
-        <v>1.026872337548157</v>
+        <v>1.053288251876861</v>
       </c>
       <c r="N15">
-        <v>1.010987358579577</v>
+        <v>1.015684737309436</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9942813846875215</v>
+        <v>1.028989524824039</v>
       </c>
       <c r="D16">
-        <v>1.014325471649244</v>
+        <v>1.034293698902547</v>
       </c>
       <c r="E16">
-        <v>1.009939963785206</v>
+        <v>1.039058074214251</v>
       </c>
       <c r="F16">
-        <v>1.014810840236476</v>
+        <v>1.050335869820021</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041473732595112</v>
+        <v>1.036598560693536</v>
       </c>
       <c r="J16">
-        <v>1.022646224992665</v>
+        <v>1.03535477549651</v>
       </c>
       <c r="K16">
-        <v>1.028404871717195</v>
+        <v>1.037737303743579</v>
       </c>
       <c r="L16">
-        <v>1.024095881243675</v>
+        <v>1.042484723292846</v>
       </c>
       <c r="M16">
-        <v>1.028881824295099</v>
+        <v>1.053723057777167</v>
       </c>
       <c r="N16">
-        <v>1.011419889718991</v>
+        <v>1.015772157436763</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9958251739142441</v>
+        <v>1.029291817830305</v>
       </c>
       <c r="D17">
-        <v>1.015427240783639</v>
+        <v>1.034519575559051</v>
       </c>
       <c r="E17">
-        <v>1.011256512354664</v>
+        <v>1.03933962519305</v>
       </c>
       <c r="F17">
-        <v>1.016403215674663</v>
+        <v>1.050680580552577</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041905882998938</v>
+        <v>1.036665423727641</v>
       </c>
       <c r="J17">
-        <v>1.023444735300676</v>
+        <v>1.035518813165799</v>
       </c>
       <c r="K17">
-        <v>1.029170075538615</v>
+        <v>1.037890583315785</v>
       </c>
       <c r="L17">
-        <v>1.025070011364252</v>
+        <v>1.04269386801855</v>
       </c>
       <c r="M17">
-        <v>1.030129622550391</v>
+        <v>1.053996044626976</v>
       </c>
       <c r="N17">
-        <v>1.01168810336963</v>
+        <v>1.015826988330607</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9967197320784102</v>
+        <v>1.029468226130905</v>
       </c>
       <c r="D18">
-        <v>1.016066130418183</v>
+        <v>1.034651394890621</v>
       </c>
       <c r="E18">
-        <v>1.012020153605119</v>
+        <v>1.039503977132364</v>
       </c>
       <c r="F18">
-        <v>1.017326753393552</v>
+        <v>1.050881808221604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042155453536695</v>
+        <v>1.036704328044584</v>
       </c>
       <c r="J18">
-        <v>1.023907239345818</v>
+        <v>1.035614497130338</v>
       </c>
       <c r="K18">
-        <v>1.029613186734411</v>
+        <v>1.037979973681589</v>
       </c>
       <c r="L18">
-        <v>1.025634579779038</v>
+        <v>1.042815906172345</v>
       </c>
       <c r="M18">
-        <v>1.030852959882418</v>
+        <v>1.054155360790335</v>
       </c>
       <c r="N18">
-        <v>1.011843450031849</v>
+        <v>1.015858968148636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9970237635327176</v>
+        <v>1.029528391316139</v>
       </c>
       <c r="D19">
-        <v>1.016283345330292</v>
+        <v>1.034696353571963</v>
       </c>
       <c r="E19">
-        <v>1.012279818310401</v>
+        <v>1.039560038548772</v>
       </c>
       <c r="F19">
-        <v>1.017640773552619</v>
+        <v>1.05095044936249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042240130665513</v>
+        <v>1.036717577145952</v>
       </c>
       <c r="J19">
-        <v>1.024064395100113</v>
+        <v>1.035647123454578</v>
       </c>
       <c r="K19">
-        <v>1.029763735433028</v>
+        <v>1.038010450898508</v>
       </c>
       <c r="L19">
-        <v>1.025826474837829</v>
+        <v>1.042857526050842</v>
       </c>
       <c r="M19">
-        <v>1.031098847694239</v>
+        <v>1.054209698278915</v>
       </c>
       <c r="N19">
-        <v>1.01189623486826</v>
+        <v>1.01586987206695</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9956601539815987</v>
+        <v>1.029259375752508</v>
       </c>
       <c r="D20">
-        <v>1.015309421255133</v>
+        <v>1.034495333949652</v>
       </c>
       <c r="E20">
-        <v>1.011115703836582</v>
+        <v>1.039309404181634</v>
       </c>
       <c r="F20">
-        <v>1.016232916426614</v>
+        <v>1.050643579402283</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041859776260303</v>
+        <v>1.03665825985632</v>
       </c>
       <c r="J20">
-        <v>1.02335940058641</v>
+        <v>1.035501213097842</v>
       </c>
       <c r="K20">
-        <v>1.029088310654148</v>
+        <v>1.037874139411731</v>
       </c>
       <c r="L20">
-        <v>1.024965873000693</v>
+        <v>1.04267142383677</v>
       </c>
       <c r="M20">
-        <v>1.029996211323055</v>
+        <v>1.053966746652177</v>
       </c>
       <c r="N20">
-        <v>1.011659440578754</v>
+        <v>1.015821105709905</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9911565520098151</v>
+        <v>1.028385794050808</v>
       </c>
       <c r="D21">
-        <v>1.012098470253601</v>
+        <v>1.033842618549899</v>
       </c>
       <c r="E21">
-        <v>1.0072801062834</v>
+        <v>1.038496076791586</v>
       </c>
       <c r="F21">
-        <v>1.011593071073663</v>
+        <v>1.049647844722636</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040593626298833</v>
+        <v>1.036464289818574</v>
       </c>
       <c r="J21">
-        <v>1.02102872446113</v>
+        <v>1.035026889314779</v>
       </c>
       <c r="K21">
-        <v>1.026854202207941</v>
+        <v>1.037430804137719</v>
       </c>
       <c r="L21">
-        <v>1.022124855091141</v>
+        <v>1.0420669502112</v>
       </c>
       <c r="M21">
-        <v>1.026358088162909</v>
+        <v>1.053177920629835</v>
       </c>
       <c r="N21">
-        <v>1.010876555947109</v>
+        <v>1.01566253778817</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9882688223957172</v>
+        <v>1.02783732546228</v>
       </c>
       <c r="D22">
-        <v>1.010044213224407</v>
+        <v>1.03343286802887</v>
       </c>
       <c r="E22">
-        <v>1.004827934226119</v>
+        <v>1.037985872800307</v>
       </c>
       <c r="F22">
-        <v>1.008625718633155</v>
+        <v>1.04902327671453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039774286616068</v>
+        <v>1.036341475637709</v>
       </c>
       <c r="J22">
-        <v>1.019532685702067</v>
+        <v>1.034728704328425</v>
       </c>
       <c r="K22">
-        <v>1.025419284213974</v>
+        <v>1.037151935634756</v>
       </c>
       <c r="L22">
-        <v>1.020304351705688</v>
+        <v>1.041687332996563</v>
       </c>
       <c r="M22">
-        <v>1.024028213394854</v>
+        <v>1.052682755934538</v>
       </c>
       <c r="N22">
-        <v>1.010373998824271</v>
+        <v>1.015562824073427</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9898051294949474</v>
+        <v>1.028128003819002</v>
       </c>
       <c r="D23">
-        <v>1.011136649118211</v>
+        <v>1.033650023458283</v>
       </c>
       <c r="E23">
-        <v>1.006131824952663</v>
+        <v>1.038256230275736</v>
       </c>
       <c r="F23">
-        <v>1.010203649039084</v>
+        <v>1.049354230086077</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040210877985484</v>
+        <v>1.036406662790281</v>
       </c>
       <c r="J23">
-        <v>1.020328736508864</v>
+        <v>1.034886773486529</v>
       </c>
       <c r="K23">
-        <v>1.026182890542112</v>
+        <v>1.037299780601179</v>
       </c>
       <c r="L23">
-        <v>1.021272760051578</v>
+        <v>1.041888533098247</v>
       </c>
       <c r="M23">
-        <v>1.025267450314627</v>
+        <v>1.052945175512437</v>
       </c>
       <c r="N23">
-        <v>1.010641414544532</v>
+        <v>1.015615685535865</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9957347376134377</v>
+        <v>1.029274034665828</v>
       </c>
       <c r="D24">
-        <v>1.01536267041254</v>
+        <v>1.034506287475609</v>
       </c>
       <c r="E24">
-        <v>1.011179342348531</v>
+        <v>1.039323059360566</v>
       </c>
       <c r="F24">
-        <v>1.016309883578987</v>
+        <v>1.050660298123789</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041880617614631</v>
+        <v>1.036661497197385</v>
       </c>
       <c r="J24">
-        <v>1.023397969711252</v>
+        <v>1.035509165800118</v>
       </c>
       <c r="K24">
-        <v>1.029125266621699</v>
+        <v>1.037881569750727</v>
       </c>
       <c r="L24">
-        <v>1.025012939831465</v>
+        <v>1.04268156524963</v>
       </c>
       <c r="M24">
-        <v>1.030056507944662</v>
+        <v>1.053979984875594</v>
       </c>
       <c r="N24">
-        <v>1.011672395448339</v>
+        <v>1.015823763819583</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002385258129309</v>
+        <v>1.03060730272643</v>
       </c>
       <c r="D25">
-        <v>1.02012019910217</v>
+        <v>1.035502645711533</v>
       </c>
       <c r="E25">
-        <v>1.016869750902604</v>
+        <v>1.040566069664905</v>
       </c>
       <c r="F25">
-        <v>1.023190362837294</v>
+        <v>1.052182332426559</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043720712550449</v>
+        <v>1.03695345917225</v>
       </c>
       <c r="J25">
-        <v>1.026832614606812</v>
+        <v>1.036231552614377</v>
       </c>
       <c r="K25">
-        <v>1.032414002339605</v>
+        <v>1.038556109788468</v>
       </c>
       <c r="L25">
-        <v>1.029211710852602</v>
+        <v>1.043603695494985</v>
       </c>
       <c r="M25">
-        <v>1.035439036987311</v>
+        <v>1.055184251350117</v>
       </c>
       <c r="N25">
-        <v>1.012825920932298</v>
+        <v>1.016065142403652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031673357105697</v>
+        <v>1.007518016554603</v>
       </c>
       <c r="D2">
-        <v>1.036299454614937</v>
+        <v>1.023804389522297</v>
       </c>
       <c r="E2">
-        <v>1.041561461487249</v>
+        <v>1.021283685307411</v>
       </c>
       <c r="F2">
-        <v>1.053401397699271</v>
+        <v>1.028525410439015</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037183268039884</v>
+        <v>1.045113496039199</v>
       </c>
       <c r="J2">
-        <v>1.036807787208039</v>
+        <v>1.029476166892914</v>
       </c>
       <c r="K2">
-        <v>1.039093592904857</v>
+        <v>1.034941760996514</v>
       </c>
       <c r="L2">
-        <v>1.044340627457229</v>
+        <v>1.032454258870543</v>
       </c>
       <c r="M2">
-        <v>1.056147467704779</v>
+        <v>1.039601145947359</v>
       </c>
       <c r="N2">
-        <v>1.016257579537647</v>
+        <v>1.013713522590904</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032448907208464</v>
+        <v>1.011151790755372</v>
       </c>
       <c r="D3">
-        <v>1.036879201612525</v>
+        <v>1.026418991659962</v>
       </c>
       <c r="E3">
-        <v>1.04228647119365</v>
+        <v>1.024420833358277</v>
       </c>
       <c r="F3">
-        <v>1.054289464434955</v>
+        <v>1.032316445568163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037348341686292</v>
+        <v>1.046083095626834</v>
       </c>
       <c r="J3">
-        <v>1.037226196426974</v>
+        <v>1.031342995305355</v>
       </c>
       <c r="K3">
-        <v>1.039483522881351</v>
+        <v>1.036724637589569</v>
       </c>
       <c r="L3">
-        <v>1.04487651486592</v>
+        <v>1.034750496617723</v>
       </c>
       <c r="M3">
-        <v>1.056848379585562</v>
+        <v>1.042551877322554</v>
       </c>
       <c r="N3">
-        <v>1.016397247667257</v>
+        <v>1.014340157457685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032951423219397</v>
+        <v>1.01346202977632</v>
       </c>
       <c r="D4">
-        <v>1.037254877379135</v>
+        <v>1.028083953177549</v>
       </c>
       <c r="E4">
-        <v>1.042756638167133</v>
+        <v>1.026420840475137</v>
       </c>
       <c r="F4">
-        <v>1.054865440474069</v>
+        <v>1.03473307769626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037454323471892</v>
+        <v>1.046691738129956</v>
       </c>
       <c r="J4">
-        <v>1.037496932851472</v>
+        <v>1.032527533559492</v>
       </c>
       <c r="K4">
-        <v>1.039735672757486</v>
+        <v>1.037854845226951</v>
       </c>
       <c r="L4">
-        <v>1.04522363525291</v>
+        <v>1.03621051322686</v>
       </c>
       <c r="M4">
-        <v>1.057302614283762</v>
+        <v>1.044429626430728</v>
       </c>
       <c r="N4">
-        <v>1.016487592473831</v>
+        <v>1.014737676838956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033162842675664</v>
+        <v>1.014423708291365</v>
       </c>
       <c r="D5">
-        <v>1.037412939052577</v>
+        <v>1.028777628921329</v>
       </c>
       <c r="E5">
-        <v>1.042954542719373</v>
+        <v>1.027254676401899</v>
       </c>
       <c r="F5">
-        <v>1.055107898905812</v>
+        <v>1.035740570105419</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037498678312138</v>
+        <v>1.046943197055896</v>
       </c>
       <c r="J5">
-        <v>1.037610748603765</v>
+        <v>1.033020036019176</v>
       </c>
       <c r="K5">
-        <v>1.039841636735397</v>
+        <v>1.038324495823739</v>
       </c>
       <c r="L5">
-        <v>1.045369650622085</v>
+        <v>1.03681828206512</v>
       </c>
       <c r="M5">
-        <v>1.057493739813561</v>
+        <v>1.045211676262865</v>
       </c>
       <c r="N5">
-        <v>1.016525565827425</v>
+        <v>1.014902931824415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033198350362783</v>
+        <v>1.014584626581066</v>
       </c>
       <c r="D6">
-        <v>1.037439485730284</v>
+        <v>1.028893736655853</v>
       </c>
       <c r="E6">
-        <v>1.042987786154138</v>
+        <v>1.02739427824745</v>
       </c>
       <c r="F6">
-        <v>1.055148627336456</v>
+        <v>1.035909243795062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037506113941029</v>
+        <v>1.046985161382626</v>
       </c>
       <c r="J6">
-        <v>1.037629858624078</v>
+        <v>1.033102411847698</v>
       </c>
       <c r="K6">
-        <v>1.039859426179746</v>
+        <v>1.03840303379903</v>
       </c>
       <c r="L6">
-        <v>1.045394172241549</v>
+        <v>1.036919980383692</v>
       </c>
       <c r="M6">
-        <v>1.057525840269709</v>
+        <v>1.045342560257684</v>
       </c>
       <c r="N6">
-        <v>1.016531941261182</v>
+        <v>1.014930570865091</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032954247583355</v>
+        <v>1.013474916913506</v>
       </c>
       <c r="D7">
-        <v>1.037256988907989</v>
+        <v>1.028093246555764</v>
       </c>
       <c r="E7">
-        <v>1.04275928161189</v>
+        <v>1.02643200934706</v>
       </c>
       <c r="F7">
-        <v>1.054868678968188</v>
+        <v>1.0347465727626</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037454916929845</v>
+        <v>1.04669511538402</v>
       </c>
       <c r="J7">
-        <v>1.03749845367197</v>
+        <v>1.032534135754272</v>
       </c>
       <c r="K7">
-        <v>1.039737088811497</v>
+        <v>1.037861142130326</v>
       </c>
       <c r="L7">
-        <v>1.045225585981569</v>
+        <v>1.036218657724941</v>
       </c>
       <c r="M7">
-        <v>1.057305167465338</v>
+        <v>1.044440104859244</v>
       </c>
       <c r="N7">
-        <v>1.0164880999061</v>
+        <v>1.01473989224609</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031935315317292</v>
+        <v>1.008754742430021</v>
       </c>
       <c r="D8">
-        <v>1.036495269754603</v>
+        <v>1.024693664417021</v>
       </c>
       <c r="E8">
-        <v>1.041806265975334</v>
+        <v>1.022350220792095</v>
       </c>
       <c r="F8">
-        <v>1.053701245819862</v>
+        <v>1.029814309201198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037239227254863</v>
+        <v>1.045445106029611</v>
       </c>
       <c r="J8">
-        <v>1.036949190269691</v>
+        <v>1.03011200073774</v>
       </c>
       <c r="K8">
-        <v>1.039225404091185</v>
+        <v>1.035549218895847</v>
       </c>
       <c r="L8">
-        <v>1.044521656544314</v>
+        <v>1.033235721126374</v>
       </c>
       <c r="M8">
-        <v>1.056384198579679</v>
+        <v>1.040605020856149</v>
       </c>
       <c r="N8">
-        <v>1.01630478692887</v>
+        <v>1.013926970022244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030145140840554</v>
+        <v>1.00010946515771</v>
       </c>
       <c r="D9">
-        <v>1.035157246633561</v>
+        <v>1.018490113222406</v>
       </c>
       <c r="E9">
-        <v>1.040134960933275</v>
+        <v>1.014918935432507</v>
       </c>
       <c r="F9">
-        <v>1.051654415480588</v>
+        <v>1.020831927705349</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036852816069308</v>
+        <v>1.043095263403846</v>
       </c>
       <c r="J9">
-        <v>1.035981357099771</v>
+        <v>1.025658358520103</v>
       </c>
       <c r="K9">
-        <v>1.038322576034159</v>
+        <v>1.031290158792365</v>
       </c>
       <c r="L9">
-        <v>1.043284108676229</v>
+        <v>1.027774513297407</v>
       </c>
       <c r="M9">
-        <v>1.054766758169876</v>
+        <v>1.033595826997247</v>
       </c>
       <c r="N9">
-        <v>1.015981558311606</v>
+        <v>1.012431579065824</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02895537447267</v>
+        <v>0.9941061127225691</v>
       </c>
       <c r="D10">
-        <v>1.034268182088157</v>
+        <v>1.014200448027421</v>
       </c>
       <c r="E10">
-        <v>1.039026273612824</v>
+        <v>1.009790595461328</v>
       </c>
       <c r="F10">
-        <v>1.050296936394121</v>
+        <v>1.014630165046546</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036590991587837</v>
+        <v>1.041424555232101</v>
       </c>
       <c r="J10">
-        <v>1.035336238174656</v>
+        <v>1.022555541031639</v>
       </c>
       <c r="K10">
-        <v>1.037719979676497</v>
+        <v>1.028317956659912</v>
       </c>
       <c r="L10">
-        <v>1.042461094399615</v>
+        <v>1.023985299459111</v>
       </c>
       <c r="M10">
-        <v>1.053692219525757</v>
+        <v>1.028740197840508</v>
       </c>
       <c r="N10">
-        <v>1.015765960743085</v>
+        <v>1.011389429023017</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028441089431579</v>
+        <v>0.9914450844495348</v>
       </c>
       <c r="D11">
-        <v>1.033883930844346</v>
+        <v>1.012303924581993</v>
       </c>
       <c r="E11">
-        <v>1.038547532890268</v>
+        <v>1.007525426841298</v>
       </c>
       <c r="F11">
-        <v>1.049710837439343</v>
+        <v>1.011889886345728</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03647662790605</v>
+        <v>1.040675182061514</v>
       </c>
       <c r="J11">
-        <v>1.035056935310695</v>
+        <v>1.021178140034546</v>
       </c>
       <c r="K11">
-        <v>1.037458896787798</v>
+        <v>1.026997478163701</v>
       </c>
       <c r="L11">
-        <v>1.042105217938621</v>
+        <v>1.022306806490748</v>
       </c>
       <c r="M11">
-        <v>1.053227845907692</v>
+        <v>1.026591006981019</v>
       </c>
       <c r="N11">
-        <v>1.015672583987217</v>
+        <v>1.010926747338462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028250196915012</v>
+        <v>0.9904469962559328</v>
       </c>
       <c r="D12">
-        <v>1.033741312854924</v>
+        <v>1.011593373046499</v>
       </c>
       <c r="E12">
-        <v>1.038369908839657</v>
+        <v>1.006677055483682</v>
       </c>
       <c r="F12">
-        <v>1.049493391522262</v>
+        <v>1.01086340102525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036433999864268</v>
+        <v>1.040392821445806</v>
       </c>
       <c r="J12">
-        <v>1.034953196799804</v>
+        <v>1.020661232211609</v>
       </c>
       <c r="K12">
-        <v>1.037361897081946</v>
+        <v>1.026501782575714</v>
       </c>
       <c r="L12">
-        <v>1.041973105378518</v>
+        <v>1.021677442000146</v>
       </c>
       <c r="M12">
-        <v>1.053055495248033</v>
+        <v>1.025785393454631</v>
       </c>
       <c r="N12">
-        <v>1.01563789693627</v>
+        <v>1.010753107734646</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028291137830181</v>
+        <v>0.9906615338477014</v>
       </c>
       <c r="D13">
-        <v>1.033771899887782</v>
+        <v>1.011746068523094</v>
       </c>
       <c r="E13">
-        <v>1.038408000647571</v>
+        <v>1.006859355043883</v>
       </c>
       <c r="F13">
-        <v>1.049540022730192</v>
+        <v>1.011083982173895</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036443150421759</v>
+        <v>1.040453572086784</v>
       </c>
       <c r="J13">
-        <v>1.034975448724244</v>
+        <v>1.020772352823044</v>
       </c>
       <c r="K13">
-        <v>1.037382704817405</v>
+        <v>1.026608349751764</v>
       </c>
       <c r="L13">
-        <v>1.042001440515808</v>
+        <v>1.021812713483638</v>
       </c>
       <c r="M13">
-        <v>1.053092458757878</v>
+        <v>1.025958535944819</v>
       </c>
       <c r="N13">
-        <v>1.015645337543972</v>
+        <v>1.01079043556884</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028425307414472</v>
+        <v>0.9913627818090039</v>
       </c>
       <c r="D14">
-        <v>1.033872139741133</v>
+        <v>1.012245315936223</v>
       </c>
       <c r="E14">
-        <v>1.038532846307186</v>
+        <v>1.007455444470744</v>
       </c>
       <c r="F14">
-        <v>1.04969285803005</v>
+        <v>1.011805214937313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036473107279299</v>
+        <v>1.040651924518221</v>
       </c>
       <c r="J14">
-        <v>1.035048360102434</v>
+        <v>1.021135521128605</v>
       </c>
       <c r="K14">
-        <v>1.03745087920076</v>
+        <v>1.026956611183804</v>
       </c>
       <c r="L14">
-        <v>1.042094295917801</v>
+        <v>1.022254904691539</v>
       </c>
       <c r="M14">
-        <v>1.05321359651479</v>
+        <v>1.026524565573637</v>
       </c>
       <c r="N14">
-        <v>1.015669716798439</v>
+        <v>1.010912430900942</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028507991780913</v>
+        <v>0.991793550362305</v>
       </c>
       <c r="D15">
-        <v>1.033933915460816</v>
+        <v>1.01255210363009</v>
       </c>
       <c r="E15">
-        <v>1.038609794608896</v>
+        <v>1.007821780029351</v>
       </c>
       <c r="F15">
-        <v>1.049787059065892</v>
+        <v>1.01224843581793</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036491545062121</v>
+        <v>1.040773601172245</v>
       </c>
       <c r="J15">
-        <v>1.035093284177019</v>
+        <v>1.021358575551324</v>
       </c>
       <c r="K15">
-        <v>1.037492880827107</v>
+        <v>1.027170490518108</v>
       </c>
       <c r="L15">
-        <v>1.042151517286926</v>
+        <v>1.022526564801975</v>
       </c>
       <c r="M15">
-        <v>1.053288251876861</v>
+        <v>1.026872337548157</v>
       </c>
       <c r="N15">
-        <v>1.015684737309436</v>
+        <v>1.010987358579577</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028989524824039</v>
+        <v>0.9942813846875216</v>
       </c>
       <c r="D16">
-        <v>1.034293698902547</v>
+        <v>1.014325471649244</v>
       </c>
       <c r="E16">
-        <v>1.039058074214251</v>
+        <v>1.009939963785206</v>
       </c>
       <c r="F16">
-        <v>1.050335869820021</v>
+        <v>1.014810840236476</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036598560693536</v>
+        <v>1.041473732595113</v>
       </c>
       <c r="J16">
-        <v>1.03535477549651</v>
+        <v>1.022646224992665</v>
       </c>
       <c r="K16">
-        <v>1.037737303743579</v>
+        <v>1.028404871717195</v>
       </c>
       <c r="L16">
-        <v>1.042484723292846</v>
+        <v>1.024095881243675</v>
       </c>
       <c r="M16">
-        <v>1.053723057777167</v>
+        <v>1.028881824295099</v>
       </c>
       <c r="N16">
-        <v>1.015772157436763</v>
+        <v>1.011419889718991</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029291817830305</v>
+        <v>0.9958251739142431</v>
       </c>
       <c r="D17">
-        <v>1.034519575559051</v>
+        <v>1.015427240783638</v>
       </c>
       <c r="E17">
-        <v>1.03933962519305</v>
+        <v>1.011256512354663</v>
       </c>
       <c r="F17">
-        <v>1.050680580552577</v>
+        <v>1.016403215674662</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036665423727641</v>
+        <v>1.041905882998938</v>
       </c>
       <c r="J17">
-        <v>1.035518813165799</v>
+        <v>1.023444735300675</v>
       </c>
       <c r="K17">
-        <v>1.037890583315785</v>
+        <v>1.029170075538614</v>
       </c>
       <c r="L17">
-        <v>1.04269386801855</v>
+        <v>1.025070011364251</v>
       </c>
       <c r="M17">
-        <v>1.053996044626976</v>
+        <v>1.030129622550389</v>
       </c>
       <c r="N17">
-        <v>1.015826988330607</v>
+        <v>1.01168810336963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029468226130905</v>
+        <v>0.9967197320784097</v>
       </c>
       <c r="D18">
-        <v>1.034651394890621</v>
+        <v>1.016066130418183</v>
       </c>
       <c r="E18">
-        <v>1.039503977132364</v>
+        <v>1.012020153605118</v>
       </c>
       <c r="F18">
-        <v>1.050881808221604</v>
+        <v>1.017326753393551</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036704328044584</v>
+        <v>1.042155453536695</v>
       </c>
       <c r="J18">
-        <v>1.035614497130338</v>
+        <v>1.023907239345818</v>
       </c>
       <c r="K18">
-        <v>1.037979973681589</v>
+        <v>1.02961318673441</v>
       </c>
       <c r="L18">
-        <v>1.042815906172345</v>
+        <v>1.025634579779037</v>
       </c>
       <c r="M18">
-        <v>1.054155360790335</v>
+        <v>1.030852959882418</v>
       </c>
       <c r="N18">
-        <v>1.015858968148636</v>
+        <v>1.011843450031849</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029528391316139</v>
+        <v>0.9970237635327175</v>
       </c>
       <c r="D19">
-        <v>1.034696353571963</v>
+        <v>1.016283345330292</v>
       </c>
       <c r="E19">
-        <v>1.039560038548772</v>
+        <v>1.012279818310401</v>
       </c>
       <c r="F19">
-        <v>1.05095044936249</v>
+        <v>1.017640773552619</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036717577145952</v>
+        <v>1.042240130665512</v>
       </c>
       <c r="J19">
-        <v>1.035647123454578</v>
+        <v>1.024064395100112</v>
       </c>
       <c r="K19">
-        <v>1.038010450898508</v>
+        <v>1.029763735433027</v>
       </c>
       <c r="L19">
-        <v>1.042857526050842</v>
+        <v>1.025826474837829</v>
       </c>
       <c r="M19">
-        <v>1.054209698278915</v>
+        <v>1.031098847694239</v>
       </c>
       <c r="N19">
-        <v>1.01586987206695</v>
+        <v>1.01189623486826</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029259375752508</v>
+        <v>0.9956601539815987</v>
       </c>
       <c r="D20">
-        <v>1.034495333949652</v>
+        <v>1.015309421255133</v>
       </c>
       <c r="E20">
-        <v>1.039309404181634</v>
+        <v>1.011115703836582</v>
       </c>
       <c r="F20">
-        <v>1.050643579402283</v>
+        <v>1.016232916426615</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03665825985632</v>
+        <v>1.041859776260303</v>
       </c>
       <c r="J20">
-        <v>1.035501213097842</v>
+        <v>1.02335940058641</v>
       </c>
       <c r="K20">
-        <v>1.037874139411731</v>
+        <v>1.029088310654148</v>
       </c>
       <c r="L20">
-        <v>1.04267142383677</v>
+        <v>1.024965873000693</v>
       </c>
       <c r="M20">
-        <v>1.053966746652177</v>
+        <v>1.029996211323055</v>
       </c>
       <c r="N20">
-        <v>1.015821105709905</v>
+        <v>1.011659440578754</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028385794050808</v>
+        <v>0.9911565520098142</v>
       </c>
       <c r="D21">
-        <v>1.033842618549899</v>
+        <v>1.0120984702536</v>
       </c>
       <c r="E21">
-        <v>1.038496076791586</v>
+        <v>1.007280106283399</v>
       </c>
       <c r="F21">
-        <v>1.049647844722636</v>
+        <v>1.011593071073662</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036464289818574</v>
+        <v>1.040593626298833</v>
       </c>
       <c r="J21">
-        <v>1.035026889314779</v>
+        <v>1.021028724461129</v>
       </c>
       <c r="K21">
-        <v>1.037430804137719</v>
+        <v>1.02685420220794</v>
       </c>
       <c r="L21">
-        <v>1.0420669502112</v>
+        <v>1.02212485509114</v>
       </c>
       <c r="M21">
-        <v>1.053177920629835</v>
+        <v>1.026358088162908</v>
       </c>
       <c r="N21">
-        <v>1.01566253778817</v>
+        <v>1.010876555947108</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02783732546228</v>
+        <v>0.9882688223957166</v>
       </c>
       <c r="D22">
-        <v>1.03343286802887</v>
+        <v>1.010044213224407</v>
       </c>
       <c r="E22">
-        <v>1.037985872800307</v>
+        <v>1.004827934226119</v>
       </c>
       <c r="F22">
-        <v>1.04902327671453</v>
+        <v>1.008625718633154</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036341475637709</v>
+        <v>1.039774286616067</v>
       </c>
       <c r="J22">
-        <v>1.034728704328425</v>
+        <v>1.019532685702067</v>
       </c>
       <c r="K22">
-        <v>1.037151935634756</v>
+        <v>1.025419284213973</v>
       </c>
       <c r="L22">
-        <v>1.041687332996563</v>
+        <v>1.020304351705687</v>
       </c>
       <c r="M22">
-        <v>1.052682755934538</v>
+        <v>1.024028213394854</v>
       </c>
       <c r="N22">
-        <v>1.015562824073427</v>
+        <v>1.010373998824271</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028128003819002</v>
+        <v>0.9898051294949468</v>
       </c>
       <c r="D23">
-        <v>1.033650023458283</v>
+        <v>1.01113664911821</v>
       </c>
       <c r="E23">
-        <v>1.038256230275736</v>
+        <v>1.006131824952662</v>
       </c>
       <c r="F23">
-        <v>1.049354230086077</v>
+        <v>1.010203649039084</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036406662790281</v>
+        <v>1.040210877985483</v>
       </c>
       <c r="J23">
-        <v>1.034886773486529</v>
+        <v>1.020328736508864</v>
       </c>
       <c r="K23">
-        <v>1.037299780601179</v>
+        <v>1.026182890542112</v>
       </c>
       <c r="L23">
-        <v>1.041888533098247</v>
+        <v>1.021272760051577</v>
       </c>
       <c r="M23">
-        <v>1.052945175512437</v>
+        <v>1.025267450314627</v>
       </c>
       <c r="N23">
-        <v>1.015615685535865</v>
+        <v>1.010641414544532</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029274034665828</v>
+        <v>0.9957347376134376</v>
       </c>
       <c r="D24">
-        <v>1.034506287475609</v>
+        <v>1.015362670412541</v>
       </c>
       <c r="E24">
-        <v>1.039323059360566</v>
+        <v>1.01117934234853</v>
       </c>
       <c r="F24">
-        <v>1.050660298123789</v>
+        <v>1.016309883578987</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036661497197385</v>
+        <v>1.041880617614631</v>
       </c>
       <c r="J24">
-        <v>1.035509165800118</v>
+        <v>1.023397969711252</v>
       </c>
       <c r="K24">
-        <v>1.037881569750727</v>
+        <v>1.029125266621699</v>
       </c>
       <c r="L24">
-        <v>1.04268156524963</v>
+        <v>1.025012939831465</v>
       </c>
       <c r="M24">
-        <v>1.053979984875594</v>
+        <v>1.030056507944662</v>
       </c>
       <c r="N24">
-        <v>1.015823763819583</v>
+        <v>1.011672395448339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03060730272643</v>
+        <v>1.002385258129309</v>
       </c>
       <c r="D25">
-        <v>1.035502645711533</v>
+        <v>1.02012019910217</v>
       </c>
       <c r="E25">
-        <v>1.040566069664905</v>
+        <v>1.016869750902604</v>
       </c>
       <c r="F25">
-        <v>1.052182332426559</v>
+        <v>1.023190362837295</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03695345917225</v>
+        <v>1.043720712550449</v>
       </c>
       <c r="J25">
-        <v>1.036231552614377</v>
+        <v>1.026832614606812</v>
       </c>
       <c r="K25">
-        <v>1.038556109788468</v>
+        <v>1.032414002339605</v>
       </c>
       <c r="L25">
-        <v>1.043603695494985</v>
+        <v>1.029211710852602</v>
       </c>
       <c r="M25">
-        <v>1.055184251350117</v>
+        <v>1.035439036987311</v>
       </c>
       <c r="N25">
-        <v>1.016065142403652</v>
+        <v>1.012825920932298</v>
       </c>
     </row>
   </sheetData>
